--- a/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>100174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83334</v>
+        <v>82141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118812</v>
+        <v>120956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1461115985277104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1215488727713192</v>
+        <v>0.119809214544936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1732970202167409</v>
+        <v>0.1764237994753734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -765,19 +765,19 @@
         <v>162942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141513</v>
+        <v>142159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190745</v>
+        <v>186783</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2400011959172944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2084373700410604</v>
+        <v>0.2093894840710455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2809516691353784</v>
+        <v>0.2751161111424489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>260</v>
@@ -786,19 +786,19 @@
         <v>263116</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>233188</v>
+        <v>232441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>289226</v>
+        <v>291781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1928266916998205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1708936931889065</v>
+        <v>0.1703462904904714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2119613732460026</v>
+        <v>0.2138337256392743</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>585426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>566788</v>
+        <v>564644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>602266</v>
+        <v>603459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8538884014722896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8267029797832592</v>
+        <v>0.8235762005246267</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8784511272286809</v>
+        <v>0.8801907854550641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -836,19 +836,19 @@
         <v>515981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>488178</v>
+        <v>492140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>537410</v>
+        <v>536764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7599988040827056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7190483308646217</v>
+        <v>0.7248838888575507</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7915626299589396</v>
+        <v>0.7906105159289544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1101</v>
@@ -857,19 +857,19 @@
         <v>1101407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1075297</v>
+        <v>1072742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1131335</v>
+        <v>1132082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8071733083001795</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7880386267539974</v>
+        <v>0.7861662743607255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.829106306811093</v>
+        <v>0.829653709509528</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>158693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137342</v>
+        <v>136558</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184684</v>
+        <v>182941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1674988010389057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1449629557183779</v>
+        <v>0.1441351938156865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1949315783159979</v>
+        <v>0.1930919864696655</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -982,19 +982,19 @@
         <v>249682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223268</v>
+        <v>222247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280022</v>
+        <v>279080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.262751463783766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2349551161386982</v>
+        <v>0.2338801753818335</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2946791547192951</v>
+        <v>0.2936883820870975</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>380</v>
@@ -1003,19 +1003,19 @@
         <v>408375</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>372736</v>
+        <v>370907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447363</v>
+        <v>445704</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2151961337736282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.196415964883704</v>
+        <v>0.1954516807673453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2357409453322062</v>
+        <v>0.2348668747982467</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>788737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>762746</v>
+        <v>764489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>810088</v>
+        <v>810872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8325011989610943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8050684216840025</v>
+        <v>0.8069080135303346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8550370442816221</v>
+        <v>0.8558648061843135</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>660</v>
@@ -1053,19 +1053,19 @@
         <v>700577</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>670237</v>
+        <v>671179</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>726991</v>
+        <v>728012</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7372485362162341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7053208452807052</v>
+        <v>0.7063116179129025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7650448838613019</v>
+        <v>0.7661198246181666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1394</v>
@@ -1074,19 +1074,19 @@
         <v>1489314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1450326</v>
+        <v>1451985</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1524953</v>
+        <v>1526782</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7848038662263719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7642590546677938</v>
+        <v>0.7651331252017535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8035840351162961</v>
+        <v>0.8045483192326548</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>131935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112859</v>
+        <v>112683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154653</v>
+        <v>155599</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1964310658807713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1680295423137451</v>
+        <v>0.1677680703528419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2302540758572844</v>
+        <v>0.2316627983836577</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -1199,19 +1199,19 @@
         <v>204183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181409</v>
+        <v>181784</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226455</v>
+        <v>227190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3052116745609961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2711693615287402</v>
+        <v>0.2717293968688489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3385036352350467</v>
+        <v>0.3396020596597176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -1220,19 +1220,19 @@
         <v>336118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>306638</v>
+        <v>303305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>368432</v>
+        <v>368339</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2507128595065244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2287230552383037</v>
+        <v>0.2262373684053135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2748161240511776</v>
+        <v>0.2747465933658328</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517009</v>
+        <v>516063</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>558803</v>
+        <v>558979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8035689341192287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7697459241427155</v>
+        <v>0.7683372016163423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8319704576862547</v>
+        <v>0.8322319296471582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>477</v>
@@ -1270,19 +1270,19 @@
         <v>464805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442533</v>
+        <v>441798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>487579</v>
+        <v>487204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6947883254390039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6614963647649535</v>
+        <v>0.6603979403402824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.72883063847126</v>
+        <v>0.7282706031311511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>988</v>
@@ -1291,19 +1291,19 @@
         <v>1004532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>972218</v>
+        <v>972311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1034012</v>
+        <v>1037345</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7492871404934756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7251838759488224</v>
+        <v>0.7252534066341675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7712769447616963</v>
+        <v>0.7737626315946866</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>193339</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170734</v>
+        <v>169591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>220491</v>
+        <v>217859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2087580712785205</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1843510708503299</v>
+        <v>0.1831166984237132</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2380759305542353</v>
+        <v>0.2352340196078376</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>289</v>
@@ -1416,19 +1416,19 @@
         <v>305526</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>276197</v>
+        <v>277736</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335389</v>
+        <v>336759</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3004782584564178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2716335300571317</v>
+        <v>0.2731476439925576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3298476917724741</v>
+        <v>0.331194928143153</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>492</v>
@@ -1437,19 +1437,19 @@
         <v>498864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>460337</v>
+        <v>461492</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>539641</v>
+        <v>538679</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2567581023539408</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2369288543779602</v>
+        <v>0.2375232846569893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2777453442573152</v>
+        <v>0.2772503186679776</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>732798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>705646</v>
+        <v>708278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>755403</v>
+        <v>756546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7912419287214795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7619240694457647</v>
+        <v>0.7647659803921625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8156489291496701</v>
+        <v>0.816883301576287</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>686</v>
@@ -1487,19 +1487,19 @@
         <v>711273</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>681410</v>
+        <v>680040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>740602</v>
+        <v>739063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6995217415435822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6701523082275259</v>
+        <v>0.668805071856847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7283664699428684</v>
+        <v>0.7268523560074425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1460</v>
@@ -1508,19 +1508,19 @@
         <v>1444071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1403294</v>
+        <v>1404256</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1482598</v>
+        <v>1481443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7432418976460592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7222546557426849</v>
+        <v>0.7227496813320223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7630711456220398</v>
+        <v>0.7624767153430108</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>584141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>885</v>
@@ -1633,19 +1633,19 @@
         <v>922333</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1459</v>
@@ -1654,19 +1654,19 @@
         <v>1506475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2646688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2606242</v>
+        <v>2601543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2694067</v>
+        <v>2690564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8191976878878124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8066790601244465</v>
+        <v>0.8052245422409599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8338624139311396</v>
+        <v>0.8327783244414475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2349</v>
@@ -1704,19 +1704,19 @@
         <v>2392636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2338401</v>
+        <v>2342058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2444903</v>
+        <v>2440336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7217671772080547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7054067408223731</v>
+        <v>0.7065098476489129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7375343094164073</v>
+        <v>0.7361563794833301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4943</v>
@@ -1725,19 +1725,19 @@
         <v>5039323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4978625</v>
+        <v>4974609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5106093</v>
+        <v>5108869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7698562478728578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7605833310618303</v>
+        <v>0.7599698002337864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7800565471501815</v>
+        <v>0.7804806387698907</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>198816</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176299</v>
+        <v>175991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224701</v>
+        <v>224279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.283872373852022</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2517220127590626</v>
+        <v>0.251281625934541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3208305013612116</v>
+        <v>0.3202277085730958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -2090,19 +2090,19 @@
         <v>210672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187938</v>
+        <v>187803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>237625</v>
+        <v>235171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3044253907933538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2715737044028624</v>
+        <v>0.2713792191645437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3433721847577333</v>
+        <v>0.3398271178378323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>387</v>
@@ -2111,19 +2111,19 @@
         <v>409488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>378563</v>
+        <v>376956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>443922</v>
+        <v>446052</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2940873300600675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2718770735098628</v>
+        <v>0.2707233261920873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3188167033589449</v>
+        <v>0.3203469293564354</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>501556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475671</v>
+        <v>476093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>524073</v>
+        <v>524381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.716127626147978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6791694986387879</v>
+        <v>0.6797722914269042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7482779872409374</v>
+        <v>0.748718374065459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>450</v>
@@ -2161,19 +2161,19 @@
         <v>481360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>454407</v>
+        <v>456861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>504094</v>
+        <v>504229</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6955746092066462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6566278152422664</v>
+        <v>0.6601728821621679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7284262955971375</v>
+        <v>0.7286207808354564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>929</v>
@@ -2182,19 +2182,19 @@
         <v>982916</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>948482</v>
+        <v>946352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013841</v>
+        <v>1015448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7059126699399325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6811832966410555</v>
+        <v>0.6796530706435646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7281229264901372</v>
+        <v>0.7292766738079127</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>359023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>329587</v>
+        <v>326081</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>392354</v>
+        <v>392489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.35422419253103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3251819470260289</v>
+        <v>0.3217230777898193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3871100840550303</v>
+        <v>0.38724307388093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>328</v>
@@ -2307,19 +2307,19 @@
         <v>363676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335633</v>
+        <v>327896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>397111</v>
+        <v>394845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3552273255200558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3278359586375235</v>
+        <v>0.3202791228398081</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3878862069558643</v>
+        <v>0.3856727750753595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>655</v>
@@ -2328,19 +2328,19 @@
         <v>722698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>679614</v>
+        <v>677527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>766530</v>
+        <v>769923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3547282792923068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3335809509009303</v>
+        <v>0.3325568057005008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3762426592729234</v>
+        <v>0.3779081931711283</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>654523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621192</v>
+        <v>621057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>683959</v>
+        <v>687465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6457758074689699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6128899159449697</v>
+        <v>0.6127569261190701</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6748180529739711</v>
+        <v>0.6782769222101808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>605</v>
@@ -2378,19 +2378,19 @@
         <v>660107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>626672</v>
+        <v>628938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>688150</v>
+        <v>695887</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6447726744799442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6121137930441356</v>
+        <v>0.6143272249246405</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6721640413624765</v>
+        <v>0.6797208771601919</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1210</v>
@@ -2399,19 +2399,19 @@
         <v>1314630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1270798</v>
+        <v>1267405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1357714</v>
+        <v>1359801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6452717207076932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6237573407270766</v>
+        <v>0.6220918068288718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6664190490990698</v>
+        <v>0.6674431942994992</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>266641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>241900</v>
+        <v>237103</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>295430</v>
+        <v>293742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3537695921844516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3209444434273157</v>
+        <v>0.3145792146767185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3919662624906788</v>
+        <v>0.3897255195251356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>260</v>
@@ -2524,19 +2524,19 @@
         <v>284652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258308</v>
+        <v>258022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>312031</v>
+        <v>311926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3672902515788113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3332980920084452</v>
+        <v>0.3329288025310326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4026169958706542</v>
+        <v>0.4024823614284229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>509</v>
@@ -2545,19 +2545,19 @@
         <v>551293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513151</v>
+        <v>513822</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>592961</v>
+        <v>591876</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3606240823514352</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3356736131301926</v>
+        <v>0.3361124725578462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3878809139982781</v>
+        <v>0.3871709899049661</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>487073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458284</v>
+        <v>459972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>511814</v>
+        <v>516611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6462304078155484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6080337375093212</v>
+        <v>0.6102744804748645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6790555565726842</v>
+        <v>0.6854207853232815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>443</v>
@@ -2595,19 +2595,19 @@
         <v>490354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462975</v>
+        <v>463080</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>516698</v>
+        <v>516984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6327097484211887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5973830041293458</v>
+        <v>0.5975176385715771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6667019079915548</v>
+        <v>0.6670711974689675</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>879</v>
@@ -2616,19 +2616,19 @@
         <v>977427</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>935759</v>
+        <v>936844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1015569</v>
+        <v>1014898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6393759176485648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6121190860017219</v>
+        <v>0.6128290100950332</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6643263868698075</v>
+        <v>0.6638875274421535</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>219455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>193241</v>
+        <v>194832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>247119</v>
+        <v>247580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2330874615469614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2052451179048466</v>
+        <v>0.2069343187436283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2624697838414171</v>
+        <v>0.2629590285325893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>248</v>
@@ -2741,19 +2741,19 @@
         <v>260928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>230448</v>
+        <v>235131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>289128</v>
+        <v>290485</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2480540970075612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2190778070648911</v>
+        <v>0.2235298802915249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2748623739170895</v>
+        <v>0.2761527966901187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>458</v>
@@ -2762,19 +2762,19 @@
         <v>480383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>442528</v>
+        <v>442676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>521189</v>
+        <v>518305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2409851731690571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2219949365746443</v>
+        <v>0.2220691751109826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2614554415492038</v>
+        <v>0.2600084129782029</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>722059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>694395</v>
+        <v>693934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>748273</v>
+        <v>746682</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7669125384530386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7375302161585832</v>
+        <v>0.7370409714674111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7947548820951534</v>
+        <v>0.7930656812563718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>755</v>
@@ -2812,19 +2812,19 @@
         <v>790973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>762773</v>
+        <v>761416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821453</v>
+        <v>816770</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7519459029924388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251376260829105</v>
+        <v>0.7238472033098814</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7809221929351089</v>
+        <v>0.7764701197084751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1450</v>
@@ -2833,19 +2833,19 @@
         <v>1513032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1472226</v>
+        <v>1475110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1550887</v>
+        <v>1550739</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7590148268309429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7385445584507961</v>
+        <v>0.739991587021797</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7780050634253556</v>
+        <v>0.7779308248890172</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1043935</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1031</v>
@@ -2958,19 +2958,19 @@
         <v>1119928</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2009</v>
@@ -2979,19 +2979,19 @@
         <v>2163863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2365210</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2311375</v>
+        <v>2310679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2418288</v>
+        <v>2419162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6937840371905943</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6779924808268863</v>
+        <v>0.677788450774962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7093532017605515</v>
+        <v>0.7096094521965074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2253</v>
@@ -3029,19 +3029,19 @@
         <v>2422794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2369358</v>
+        <v>2367707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2483248</v>
+        <v>2479547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6838791436990042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6687958498042824</v>
+        <v>0.6683297754658422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7009435360808974</v>
+        <v>0.6998987586801307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4468</v>
@@ -3050,19 +3050,19 @@
         <v>4788004</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4709731</v>
+        <v>4699464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4869651</v>
+        <v>4864556</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6887364317332028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6774771139014897</v>
+        <v>0.6760002985250342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.700481019004374</v>
+        <v>0.6997481909569047</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>231012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208478</v>
+        <v>206494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259519</v>
+        <v>256151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.347213135546368</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.313345123174003</v>
+        <v>0.310362092088695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3900594414429716</v>
+        <v>0.3849985527920786</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>226</v>
@@ -3415,19 +3415,19 @@
         <v>230306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>207066</v>
+        <v>206497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>253442</v>
+        <v>255442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3463713581862102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3114191514396991</v>
+        <v>0.3105629527920002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3811666419643178</v>
+        <v>0.3841742652205036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>446</v>
@@ -3436,19 +3436,19 @@
         <v>461318</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>425818</v>
+        <v>426781</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>494331</v>
+        <v>498006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3467923796917868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3201055337837235</v>
+        <v>0.3208291843394941</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3716098491496166</v>
+        <v>0.3743721974043546</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>434319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>405812</v>
+        <v>409180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456853</v>
+        <v>458837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.652786864453632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6099405585570284</v>
+        <v>0.6150014472079214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.686654876825997</v>
+        <v>0.689637907911305</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>432</v>
@@ -3486,19 +3486,19 @@
         <v>434606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>411470</v>
+        <v>409470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457846</v>
+        <v>458415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6536286418137898</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6188333580356822</v>
+        <v>0.6158257347794963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6885808485603009</v>
+        <v>0.6894370472079998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -3507,19 +3507,19 @@
         <v>868925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>835912</v>
+        <v>832237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>904425</v>
+        <v>903462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6532076203082132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6283901508503833</v>
+        <v>0.6256278025956454</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6798944662162767</v>
+        <v>0.679170815660506</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>345833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>316233</v>
+        <v>315560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>378142</v>
+        <v>376715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3408826796461003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3117060833512698</v>
+        <v>0.3110430064568455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3727286077979731</v>
+        <v>0.3713218946187192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>344</v>
@@ -3632,19 +3632,19 @@
         <v>363900</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331743</v>
+        <v>335508</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>398143</v>
+        <v>397912</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3515427837185814</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3204775146782765</v>
+        <v>0.3241145906639754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3846227133900249</v>
+        <v>0.3844001270562726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>666</v>
@@ -3653,19 +3653,19 @@
         <v>709733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>667901</v>
+        <v>664429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>755351</v>
+        <v>754123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3462663742614098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3258571665330452</v>
+        <v>0.3241634955160679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3685225622200188</v>
+        <v>0.3679234757442528</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>668690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>636381</v>
+        <v>637808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>698290</v>
+        <v>698963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6591173203538997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6272713922020268</v>
+        <v>0.6286781053812808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6882939166487302</v>
+        <v>0.6889569935431544</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>627</v>
@@ -3703,19 +3703,19 @@
         <v>671251</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>637008</v>
+        <v>637239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>703408</v>
+        <v>699643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6484572162814186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.615377286609975</v>
+        <v>0.6155998729437275</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6795224853217237</v>
+        <v>0.6758854093360245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1248</v>
@@ -3724,19 +3724,19 @@
         <v>1339940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1294322</v>
+        <v>1295550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1381772</v>
+        <v>1385244</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6537336257385902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.631477437779981</v>
+        <v>0.6320765242557471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6741428334669548</v>
+        <v>0.6758365044839322</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>319857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>293271</v>
+        <v>290593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>345896</v>
+        <v>347938</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4236304816790407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3884183721989493</v>
+        <v>0.3848724341608021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4581173268655801</v>
+        <v>0.4608213728695219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>340</v>
@@ -3849,19 +3849,19 @@
         <v>365480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>336498</v>
+        <v>335962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>394000</v>
+        <v>393397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4662047511762158</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4292353687378208</v>
+        <v>0.4285522904596156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5025846100352813</v>
+        <v>0.5018155500319484</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>634</v>
@@ -3870,19 +3870,19 @@
         <v>685337</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>642861</v>
+        <v>646617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>722519</v>
+        <v>726206</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.445317476616284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4177175841432109</v>
+        <v>0.4201582860471932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4694777101980893</v>
+        <v>0.4718734866569831</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>435181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>409142</v>
+        <v>407100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>461767</v>
+        <v>464445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5763695183209594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.54188267313442</v>
+        <v>0.539178627130478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6115816278010506</v>
+        <v>0.6151275658391978</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -3920,19 +3920,19 @@
         <v>418467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>389947</v>
+        <v>390550</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>447449</v>
+        <v>447985</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5337952488237842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4974153899647184</v>
+        <v>0.4981844499680516</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5707646312621788</v>
+        <v>0.5714477095403845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>793</v>
@@ -3941,19 +3941,19 @@
         <v>853648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>816466</v>
+        <v>812779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>896124</v>
+        <v>892368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5546825233837159</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5305222898019106</v>
+        <v>0.528126513343017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5822824158567891</v>
+        <v>0.5798417139528068</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>231295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207481</v>
+        <v>205718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>258951</v>
+        <v>259681</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2480667959427469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2225256702161278</v>
+        <v>0.2206348484653665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2777279330897667</v>
+        <v>0.2785108889349386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>278</v>
@@ -4066,19 +4066,19 @@
         <v>299875</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>273020</v>
+        <v>271308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330421</v>
+        <v>330937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2875716663721396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2618186786448425</v>
+        <v>0.260176806867676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3168648040820604</v>
+        <v>0.317359547415008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -4087,19 +4087,19 @@
         <v>531170</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>490714</v>
+        <v>492389</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>572324</v>
+        <v>573997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2689232018950712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2484408993094647</v>
+        <v>0.2492890543198743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2897591310901347</v>
+        <v>0.2906057899415562</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>701095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>673439</v>
+        <v>672709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>724909</v>
+        <v>726672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7519332040572531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7222720669102336</v>
+        <v>0.7214891110650614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7774743297838722</v>
+        <v>0.7793651515346336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>680</v>
@@ -4137,19 +4137,19 @@
         <v>742908</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>712362</v>
+        <v>711846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>769763</v>
+        <v>771475</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7124283336278604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6831351959179398</v>
+        <v>0.682640452584992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7381813213551576</v>
+        <v>0.7398231931323239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1377</v>
@@ -4158,19 +4158,19 @@
         <v>1444003</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1402849</v>
+        <v>1401176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1484459</v>
+        <v>1482784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7310767981049288</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.710240868909865</v>
+        <v>0.7093942100584439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7515591006905352</v>
+        <v>0.7507109456801258</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1127997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1188</v>
@@ -4283,19 +4283,19 @@
         <v>1259561</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2254</v>
@@ -4304,19 +4304,19 @@
         <v>2387558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2239285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2182113</v>
+        <v>2182669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2294192</v>
+        <v>2292114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6650125781204531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6480339929951434</v>
+        <v>0.6481990022759904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6813185412345717</v>
+        <v>0.6807015128464101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2134</v>
@@ -4354,19 +4354,19 @@
         <v>2267231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2209739</v>
+        <v>2203918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2322998</v>
+        <v>2318404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6428594005058832</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6265578906458625</v>
+        <v>0.6249071511002322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6586715871101291</v>
+        <v>0.6573690277422115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4273</v>
@@ -4375,19 +4375,19 @@
         <v>4506517</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4423746</v>
+        <v>4420711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4589685</v>
+        <v>4589155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6536797072241977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6416735932281185</v>
+        <v>0.6412333896350264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6657434647705852</v>
+        <v>0.6656664832605401</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>88632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72488</v>
+        <v>71147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110391</v>
+        <v>110477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1318183121594501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1078078837511744</v>
+        <v>0.105814393665476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1641797516956487</v>
+        <v>0.1643068648071067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -4740,19 +4740,19 @@
         <v>123263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107075</v>
+        <v>108158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>140079</v>
+        <v>141199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1709337782944179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1484845730932325</v>
+        <v>0.1499862184106212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1942525732866013</v>
+        <v>0.1958054633161864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -4761,19 +4761,19 @@
         <v>211895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>188475</v>
+        <v>187023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240195</v>
+        <v>238143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1520600715199055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1352534158587522</v>
+        <v>0.1342110547514077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1723688124338463</v>
+        <v>0.1708962507843975</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>583748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561989</v>
+        <v>561903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>599892</v>
+        <v>601233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8681816878405498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8358202483043514</v>
+        <v>0.8356931351928933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8921921162488257</v>
+        <v>0.8941856063345242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1020</v>
@@ -4811,19 +4811,19 @@
         <v>597854</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581038</v>
+        <v>579918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614042</v>
+        <v>612959</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8290662217055823</v>
+        <v>0.829066221705582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8057474267133985</v>
+        <v>0.8041945366838135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8515154269067676</v>
+        <v>0.8500137815893788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1652</v>
@@ -4832,19 +4832,19 @@
         <v>1181601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1153301</v>
+        <v>1155353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1205021</v>
+        <v>1206473</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8479399284800947</v>
+        <v>0.8479399284800946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8276311875661538</v>
+        <v>0.8291037492156024</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8647465841412478</v>
+        <v>0.8657889452485921</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>137277</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115525</v>
+        <v>114535</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164483</v>
+        <v>164932</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1324630383891254</v>
+        <v>0.1324630383891253</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1114738989241097</v>
+        <v>0.1105185630799148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1587155394566609</v>
+        <v>0.1591480667186463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>216</v>
@@ -4957,19 +4957,19 @@
         <v>154389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135936</v>
+        <v>134653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178651</v>
+        <v>175670</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1452345786999404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.127876061678178</v>
+        <v>0.1266691204667253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1680582318026922</v>
+        <v>0.1652540138947434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>339</v>
@@ -4978,19 +4978,19 @@
         <v>291665</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>258284</v>
+        <v>263290</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324060</v>
+        <v>323757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1389299846470177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1230293848720442</v>
+        <v>0.1254137984691956</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1543605299861567</v>
+        <v>0.1542164959593452</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>899064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>871858</v>
+        <v>871409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920816</v>
+        <v>921806</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8675369616108748</v>
+        <v>0.8675369616108747</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8412844605433392</v>
+        <v>0.8408519332813538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8885261010758904</v>
+        <v>0.8894814369200854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1289</v>
@@ -5028,19 +5028,19 @@
         <v>908640</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>884378</v>
+        <v>887359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>927093</v>
+        <v>928376</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8547654213000595</v>
+        <v>0.8547654213000594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.831941768197308</v>
+        <v>0.8347459861052564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8721239383218218</v>
+        <v>0.8733308795332745</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2121</v>
@@ -5049,19 +5049,19 @@
         <v>1807705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1775310</v>
+        <v>1775613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1841086</v>
+        <v>1836080</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8610700153529822</v>
+        <v>0.8610700153529821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8456394700138433</v>
+        <v>0.8457835040406554</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8769706151279558</v>
+        <v>0.8745862015308047</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>110665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88904</v>
+        <v>89387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134187</v>
+        <v>135518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1393373937395133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1119386574073779</v>
+        <v>0.1125467391015414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1689538058925214</v>
+        <v>0.1706290084195773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -5174,19 +5174,19 @@
         <v>139805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121705</v>
+        <v>120232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162332</v>
+        <v>160360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1735808038315645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.151108456059838</v>
+        <v>0.1492794696887969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2015495674260788</v>
+        <v>0.1991020821615672</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -5195,19 +5195,19 @@
         <v>250470</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220207</v>
+        <v>218887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282587</v>
+        <v>283568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.156578908982173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1376600371099919</v>
+        <v>0.1368351964248376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1766564757713792</v>
+        <v>0.1772697163489102</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>683559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660037</v>
+        <v>658706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705320</v>
+        <v>704837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8606626062604866</v>
+        <v>0.8606626062604867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8310461941074786</v>
+        <v>0.8293709915804223</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8880613425926219</v>
+        <v>0.8874532608984586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>859</v>
@@ -5245,19 +5245,19 @@
         <v>665613</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643086</v>
+        <v>645058</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683713</v>
+        <v>685186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8264191961684355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7984504325739217</v>
+        <v>0.8008979178384328</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8488915439401621</v>
+        <v>0.8507205303112032</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1432</v>
@@ -5266,19 +5266,19 @@
         <v>1349172</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1317055</v>
+        <v>1316074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1379435</v>
+        <v>1380755</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8434210910178268</v>
+        <v>0.8434210910178269</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8233435242286209</v>
+        <v>0.8227302836510898</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8623399628900079</v>
+        <v>0.8631648035751623</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>162165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139338</v>
+        <v>138381</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190652</v>
+        <v>186670</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1657557387134787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1424227327884312</v>
+        <v>0.1414450775281942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1948728812660091</v>
+        <v>0.1908027270637412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>270</v>
@@ -5391,19 +5391,19 @@
         <v>206123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183499</v>
+        <v>184581</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229960</v>
+        <v>231347</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.186056714935599</v>
+        <v>0.1860567149355991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1656350568501584</v>
+        <v>0.1666114335437592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2075729609471649</v>
+        <v>0.2088246151687501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>420</v>
@@ -5412,19 +5412,19 @@
         <v>368289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>334309</v>
+        <v>331404</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>407845</v>
+        <v>401919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1765363832939995</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1602486406866362</v>
+        <v>0.1588558308750501</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1954972340522974</v>
+        <v>0.1926569016752496</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>816174</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>787687</v>
+        <v>791669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>839001</v>
+        <v>839958</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8342442612865214</v>
+        <v>0.8342442612865213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8051271187339908</v>
+        <v>0.8091972729362589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8575772672115688</v>
+        <v>0.8585549224718055</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1279</v>
@@ -5462,19 +5462,19 @@
         <v>901730</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>877893</v>
+        <v>876506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>924354</v>
+        <v>923272</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8139432850644008</v>
+        <v>0.8139432850644011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7924270390528353</v>
+        <v>0.7911753848312501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8343649431498417</v>
+        <v>0.8333885664562409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2128</v>
@@ -5483,19 +5483,19 @@
         <v>1717903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1678347</v>
+        <v>1684273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1751883</v>
+        <v>1754788</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8234636167060005</v>
+        <v>0.8234636167060004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8045027659477026</v>
+        <v>0.8073430983247504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.839751359313364</v>
+        <v>0.84114416912495</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>498739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>861</v>
@@ -5608,19 +5608,19 @@
         <v>623580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1316</v>
@@ -5629,19 +5629,19 @@
         <v>1122320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2982545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2937947</v>
+        <v>2933807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3026708</v>
+        <v>3027880</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.856736971561179</v>
+        <v>0.8567369715611789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8439261348134823</v>
+        <v>0.8427370341344824</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8694228247387341</v>
+        <v>0.8697596513249097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4447</v>
@@ -5679,19 +5679,19 @@
         <v>3073836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3029132</v>
+        <v>3030655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3112473</v>
+        <v>3114778</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8313470123840428</v>
+        <v>0.8313470123840431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8192564818976716</v>
+        <v>0.8196683132925536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8417968038071498</v>
+        <v>0.8424200885116283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7333</v>
@@ -5700,19 +5700,19 @@
         <v>6056381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5991937</v>
+        <v>5986559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6118535</v>
+        <v>6113015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8436597796407665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8346826932496804</v>
+        <v>0.8339334394046621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.852317891922396</v>
+        <v>0.8515488500690359</v>
       </c>
     </row>
     <row r="18">
